--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/10.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/10.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3381288136234888</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.622032886436684</v>
+        <v>-1.626707723226947</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09236906524500914</v>
+        <v>0.09637022185135549</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09043908952197405</v>
+        <v>-0.09112063980149725</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3516270425157698</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.655663378982394</v>
+        <v>-1.649277583407277</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1045094747276013</v>
+        <v>0.1119136606741998</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08702819008611545</v>
+        <v>-0.08912478355568797</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3904873947561496</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.781158349504577</v>
+        <v>-1.781468431271473</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08260699865470227</v>
+        <v>0.08955314503700221</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08572805029192108</v>
+        <v>-0.08727531108815965</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4399955023657044</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.909765155829571</v>
+        <v>-1.918364022289236</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1398493520390444</v>
+        <v>0.1502788027367827</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09414118249527326</v>
+        <v>-0.09783855341120858</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4785325677287817</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.885867610520423</v>
+        <v>-1.893218279816897</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2011998953299813</v>
+        <v>0.2131970690725351</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1385788903278343</v>
+        <v>-0.1444295194017089</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.487369928233537</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.838606899393809</v>
+        <v>-1.851553206666507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3024943218621657</v>
+        <v>0.3199863963571803</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1475035787456092</v>
+        <v>-0.1510592879406274</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.4594845792052211</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.636358821469202</v>
+        <v>-1.663437459422498</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3689037626089631</v>
+        <v>0.3864525017923444</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1514779770268934</v>
+        <v>-0.15501952004982</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3992994554290321</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.332986311077511</v>
+        <v>-1.35809663811962</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4538897770253511</v>
+        <v>0.4717438759182648</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1557545869794674</v>
+        <v>-0.1578008118371583</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3141781428160029</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9159609630227425</v>
+        <v>-0.9394445413029882</v>
       </c>
       <c r="F10" t="n">
-        <v>0.447387504035258</v>
+        <v>0.4617992231098871</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1291977363648822</v>
+        <v>-0.1314942302628599</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2069220004426922</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3636384403678918</v>
+        <v>-0.3779840506394263</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4003510906334295</v>
+        <v>0.4214114664764327</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1041912945847781</v>
+        <v>-0.1099915550467712</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.0814302653076233</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2800692714409949</v>
+        <v>0.2895905131057427</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2962942605433623</v>
+        <v>0.3264996874811226</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02784507112520959</v>
+        <v>-0.03142596462616866</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05760119092535859</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9422575417530729</v>
+        <v>0.9758959043943899</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06239187107983754</v>
+        <v>0.09336384532967117</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07298344574706987</v>
+        <v>0.06881072105650174</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2028953269904771</v>
       </c>
       <c r="E14" t="n">
-        <v>1.630749245601207</v>
+        <v>1.688034097501824</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2338290834342241</v>
+        <v>-0.2004315457184661</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1956404597935473</v>
+        <v>0.1962795115567953</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3500840532351411</v>
       </c>
       <c r="E15" t="n">
-        <v>2.306777866046882</v>
+        <v>2.380695378002283</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5328045714105619</v>
+        <v>-0.5011589169768116</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3148535200026187</v>
+        <v>0.3146756558419118</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4954187401967655</v>
       </c>
       <c r="E16" t="n">
-        <v>2.940731381361068</v>
+        <v>3.029022835932187</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8491564434764988</v>
+        <v>-0.8215961556720843</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4398558225398342</v>
+        <v>0.4427724799716043</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6402709282513532</v>
       </c>
       <c r="E17" t="n">
-        <v>3.682245493329337</v>
+        <v>3.782910312213001</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.242622660333199</v>
+        <v>-1.21999377443582</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5885282246231693</v>
+        <v>0.5976890159091394</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7878111356894745</v>
       </c>
       <c r="E18" t="n">
-        <v>4.237413055545939</v>
+        <v>4.345379749133317</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.58025448390956</v>
+        <v>-1.562806481949942</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7199635433091407</v>
+        <v>0.7302261479800212</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9364738810345766</v>
       </c>
       <c r="E19" t="n">
-        <v>4.78233060524463</v>
+        <v>4.915720855679257</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.959427820135289</v>
+        <v>-1.954041526702198</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8976199334921067</v>
+        <v>0.909195270110152</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.083712764865944</v>
       </c>
       <c r="E20" t="n">
-        <v>5.190297473256313</v>
+        <v>5.326503643898946</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.338453198563617</v>
+        <v>-2.332857560587392</v>
       </c>
       <c r="G20" t="n">
-        <v>1.060677296325009</v>
+        <v>1.076195550841912</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.221721666816011</v>
       </c>
       <c r="E21" t="n">
-        <v>5.524431826345144</v>
+        <v>5.664714706511947</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.721068127598069</v>
+        <v>-2.730282435534164</v>
       </c>
       <c r="G21" t="n">
-        <v>1.235527210414696</v>
+        <v>1.255942238417966</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.346620833618851</v>
       </c>
       <c r="E22" t="n">
-        <v>5.787582639120679</v>
+        <v>5.926718059348053</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.041692674568777</v>
+        <v>-3.060767425290259</v>
       </c>
       <c r="G22" t="n">
-        <v>1.35446481727754</v>
+        <v>1.37898331313004</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.456504966590773</v>
       </c>
       <c r="E23" t="n">
-        <v>5.998707397879861</v>
+        <v>6.149048260231774</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.274232750482816</v>
+        <v>-3.305958679891753</v>
       </c>
       <c r="G23" t="n">
-        <v>1.443099408017103</v>
+        <v>1.471686743298166</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.549840924367512</v>
       </c>
       <c r="E24" t="n">
-        <v>6.054654333527372</v>
+        <v>6.203780053117642</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.480662210203159</v>
+        <v>-3.517964889358864</v>
       </c>
       <c r="G24" t="n">
-        <v>1.545366578366251</v>
+        <v>1.575102947605864</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.626791641324664</v>
       </c>
       <c r="E25" t="n">
-        <v>6.099646096090631</v>
+        <v>6.239823516976307</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.616692090704207</v>
+        <v>-3.65757487635131</v>
       </c>
       <c r="G25" t="n">
-        <v>1.596923574684455</v>
+        <v>1.625638405514343</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.684849182699899</v>
       </c>
       <c r="E26" t="n">
-        <v>6.04650721055552</v>
+        <v>6.189832669683797</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.763407200010204</v>
+        <v>-3.808469006424361</v>
       </c>
       <c r="G26" t="n">
-        <v>1.635776662674641</v>
+        <v>1.664971569336526</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.723833285435336</v>
       </c>
       <c r="E27" t="n">
-        <v>5.941806606644841</v>
+        <v>6.079457726840829</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.850593693158171</v>
+        <v>-3.905335717168327</v>
       </c>
       <c r="G27" t="n">
-        <v>1.644885511329608</v>
+        <v>1.679175517887144</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.743457764268258</v>
       </c>
       <c r="E28" t="n">
-        <v>5.746897392873298</v>
+        <v>5.878619183039346</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.83574439676782</v>
+        <v>-3.897114615297773</v>
       </c>
       <c r="G28" t="n">
-        <v>1.636447194820315</v>
+        <v>1.668711438768737</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.744771938780422</v>
       </c>
       <c r="E29" t="n">
-        <v>5.619510451367312</v>
+        <v>5.747149235932707</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.777733922052283</v>
+        <v>-3.834925119815183</v>
       </c>
       <c r="G29" t="n">
-        <v>1.585508788016782</v>
+        <v>1.620263130215102</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.729242827182732</v>
       </c>
       <c r="E30" t="n">
-        <v>5.392807625364616</v>
+        <v>5.517628915702883</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.689848564414459</v>
+        <v>-3.746852453901925</v>
       </c>
       <c r="G30" t="n">
-        <v>1.548931731675997</v>
+        <v>1.58710326938666</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.697852518752816</v>
       </c>
       <c r="E31" t="n">
-        <v>5.201158205193288</v>
+        <v>5.314879512688141</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.567045166589701</v>
+        <v>-3.621334660102483</v>
       </c>
       <c r="G31" t="n">
-        <v>1.462925752869006</v>
+        <v>1.497047339380562</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.652670575548207</v>
       </c>
       <c r="E32" t="n">
-        <v>4.975303775496974</v>
+        <v>5.084299877589681</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.437338907908479</v>
+        <v>-3.494234977086134</v>
       </c>
       <c r="G32" t="n">
-        <v>1.367960457223572</v>
+        <v>1.398395690953042</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.597152517143764</v>
       </c>
       <c r="E33" t="n">
-        <v>4.663341055750784</v>
+        <v>4.76480705036719</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.246141231224962</v>
+        <v>-3.299905789360791</v>
       </c>
       <c r="G33" t="n">
-        <v>1.251396471195649</v>
+        <v>1.283364799549266</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.534737815897892</v>
       </c>
       <c r="E34" t="n">
-        <v>4.344510890578358</v>
+        <v>4.446061882227315</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.144819259358155</v>
+        <v>-3.190597244472504</v>
       </c>
       <c r="G34" t="n">
-        <v>1.161142214780268</v>
+        <v>1.190707015935659</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.469781142187626</v>
       </c>
       <c r="E35" t="n">
-        <v>4.010231727730368</v>
+        <v>4.101214754998911</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.999915846060775</v>
+        <v>-3.046047198467855</v>
       </c>
       <c r="G35" t="n">
-        <v>1.049890543286735</v>
+        <v>1.075332988363439</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.403807115912848</v>
       </c>
       <c r="E36" t="n">
-        <v>3.715181843442554</v>
+        <v>3.796572798185891</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.908989483480598</v>
+        <v>-2.94972588534942</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9518779466224627</v>
+        <v>0.9715988321932391</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.337960391224169</v>
       </c>
       <c r="E37" t="n">
-        <v>3.392832171514901</v>
+        <v>3.469559307601824</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.776182407130413</v>
+        <v>-2.814217792187084</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8697062783949603</v>
+        <v>0.8915662559515842</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.271913959311251</v>
       </c>
       <c r="E38" t="n">
-        <v>3.060026290564447</v>
+        <v>3.124879026400278</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.654578411876086</v>
+        <v>-2.686989826612349</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7953889655827483</v>
+        <v>0.8121286589377812</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.204345874447532</v>
       </c>
       <c r="E39" t="n">
-        <v>2.748463371675068</v>
+        <v>2.803223496905119</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.513303899662864</v>
+        <v>-2.540778403425167</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7232028746607775</v>
+        <v>0.734586180946024</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.134921824035332</v>
       </c>
       <c r="E40" t="n">
-        <v>2.514768752735554</v>
+        <v>2.567007299333282</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.388469230162067</v>
+        <v>-2.408916525557323</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6782740728623706</v>
+        <v>0.6912439904218883</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.062004702062773</v>
       </c>
       <c r="E41" t="n">
-        <v>2.316872050671783</v>
+        <v>2.36276887422979</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.279880012012215</v>
+        <v>-2.295732745592395</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5921327284109479</v>
+        <v>0.6048256186051166</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9864767437776961</v>
       </c>
       <c r="E42" t="n">
-        <v>2.083539456130169</v>
+        <v>2.119773376302511</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.213055817226954</v>
+        <v>-2.229013223078701</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5392755922985495</v>
+        <v>0.548297869901845</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9074617021980299</v>
       </c>
       <c r="E43" t="n">
-        <v>1.850298154697591</v>
+        <v>1.886272361714918</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.119522878981904</v>
+        <v>-2.134533512332188</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4779549553709173</v>
+        <v>0.4855118211722819</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8256179633857729</v>
       </c>
       <c r="E44" t="n">
-        <v>1.621742708189124</v>
+        <v>1.655518010493994</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.063091932454592</v>
+        <v>-2.077497355452736</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4303440249898141</v>
+        <v>0.4397173088571597</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7426326613295806</v>
       </c>
       <c r="E45" t="n">
-        <v>1.406279952731637</v>
+        <v>1.44015599226027</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.995117916701222</v>
+        <v>-2.013999850080345</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3528928401070925</v>
+        <v>0.3582492271768787</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6597040232680059</v>
       </c>
       <c r="E46" t="n">
-        <v>1.218669465625565</v>
+        <v>1.245460845089224</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.923489815557752</v>
+        <v>-1.942267076665309</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2974354244063053</v>
+        <v>0.3037661293121767</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5799056767859485</v>
       </c>
       <c r="E47" t="n">
-        <v>1.037027659027466</v>
+        <v>1.05960224126516</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.845096580230932</v>
+        <v>-1.860780893765133</v>
       </c>
       <c r="G47" t="n">
-        <v>0.28236261730073</v>
+        <v>0.2876481735100577</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5038078958806491</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8732541174943721</v>
+        <v>0.897878072628</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.791513034294053</v>
+        <v>-1.805717769854231</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2194160186207942</v>
+        <v>0.2223137878231087</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.4335636661419576</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7551774990908796</v>
+        <v>0.7711254608278982</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.751643129951507</v>
+        <v>-1.764884565809449</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1792517727025645</v>
+        <v>0.1840934555196854</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.369149983863371</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6713137603079791</v>
+        <v>0.6808680563742742</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.679059599201408</v>
+        <v>-1.689980143864992</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1457015551320403</v>
+        <v>0.1509304466530012</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.3109463940001146</v>
       </c>
       <c r="E51" t="n">
-        <v>0.558604547108122</v>
+        <v>0.5699500769344573</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.605321525425834</v>
+        <v>-1.614609025251069</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1120647665098446</v>
+        <v>0.1170229267419418</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.2587765041262516</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4051849033549439</v>
+        <v>0.4151452963545347</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.559227162468104</v>
+        <v>-1.563550205984757</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06145218166442103</v>
+        <v>0.0684833250792712</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2113437129084794</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3146221391917876</v>
+        <v>0.3281555555967309</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.544971271286484</v>
+        <v>-1.551390908272709</v>
       </c>
       <c r="G53" t="n">
-        <v>0.00358022063155864</v>
+        <v>0.009750375587057335</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1685890424141674</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2202376566021131</v>
+        <v>0.2340843028121952</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.496175104507041</v>
+        <v>-1.504066449371682</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.02302227653754428</v>
+        <v>-0.02040153470057864</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1287039477199016</v>
       </c>
       <c r="E55" t="n">
-        <v>0.125787065209344</v>
+        <v>0.1349462824761928</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.492992437843771</v>
+        <v>-1.49681494327985</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0408952636599136</v>
+        <v>-0.03580016376426327</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.09146040233812093</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01419225754736788</v>
+        <v>0.02182782430479751</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.485951063304633</v>
+        <v>-1.496397041203145</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.09065787817983484</v>
+        <v>-0.08695106314917173</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.05607966652307275</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.04964523595522412</v>
+        <v>-0.03936216903576673</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.492263666990609</v>
+        <v>-1.500435187258842</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.09933701961468683</v>
+        <v>-0.09316371662094554</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.02240396738500455</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1639772628691422</v>
+        <v>-0.1548180456022935</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.51760458783399</v>
+        <v>-1.522027581564845</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1576150775808448</v>
+        <v>-0.1505571758409325</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.009134320939684601</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2497329726358463</v>
+        <v>-0.2391508420833417</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.532161116667778</v>
+        <v>-1.534176648152604</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1931029126896901</v>
+        <v>-0.1923741418365279</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.03880139743551467</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3559713932280362</v>
+        <v>-0.3468483784009774</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.526464741467791</v>
+        <v>-1.525304689375393</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2296296004185939</v>
+        <v>-0.2272937560425836</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.06592992422767321</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4581598626211194</v>
+        <v>-0.4473148708753577</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.57904406320528</v>
+        <v>-1.575455299608714</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2471956538123095</v>
+        <v>-0.2422516597523041</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.09112140652235032</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5581746116076864</v>
+        <v>-0.5463584500640821</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.600937882173012</v>
+        <v>-1.600710436409984</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.26906350146454</v>
+        <v>-0.2636016551136266</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1140980869012191</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6604323378421069</v>
+        <v>-0.6500579778136141</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.654670172916854</v>
+        <v>-1.657284618677334</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3075199366361584</v>
+        <v>-0.3030717585993626</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.134958900606779</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7646591619972746</v>
+        <v>-0.7490968349449747</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.72255525658987</v>
+        <v>-1.730796820709001</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3627931920997534</v>
+        <v>-0.3603156860028261</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1540439832875699</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8617186900835995</v>
+        <v>-0.8465144523813956</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.803202487298393</v>
+        <v>-1.81050829704991</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3897356773990572</v>
+        <v>-0.3883883170312238</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.171520782993363</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9340078792580155</v>
+        <v>-0.9134771608493301</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.84218936691389</v>
+        <v>-1.848767192821805</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4264449513460319</v>
+        <v>-0.4290767113168466</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1876826645680656</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.020797719587414</v>
+        <v>-1.004733280435419</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.865682389308863</v>
+        <v>-1.870872717361352</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4636673555265505</v>
+        <v>-0.4648226855615852</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2019746564257519</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.062158220037832</v>
+        <v>-1.043017360513255</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.884319562714624</v>
+        <v>-1.890800586446579</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4845404230941189</v>
+        <v>-0.4859759285327452</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2141015015900367</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.076359020550207</v>
+        <v>-1.061673422148472</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.969405527345214</v>
+        <v>-1.97542693749375</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5228426043918499</v>
+        <v>-0.5223499364068828</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2236489386019671</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.064586144532439</v>
+        <v>-1.054828799999496</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.993787083534162</v>
+        <v>-1.999655813827932</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5484849498969594</v>
+        <v>-0.5490153943408377</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2305052452472221</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.054544689548101</v>
+        <v>-1.042401132027266</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.023606088777643</v>
+        <v>-2.033270566182429</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5491161315646009</v>
+        <v>-0.5461554015974344</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2345558620512975</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.065227557324369</v>
+        <v>-1.046363725165141</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.069576891234351</v>
+        <v>-2.08055173955762</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5498999930870088</v>
+        <v>-0.550498120353103</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.23602396291683</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9602467780100981</v>
+        <v>-0.9344045320765834</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.039024393080344</v>
+        <v>-2.044965528253693</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5599973257501526</v>
+        <v>-0.5594826214974873</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2348834588742815</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8406425740493833</v>
+        <v>-0.809827214702119</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.056310271070468</v>
+        <v>-2.05876888893794</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5597580748437149</v>
+        <v>-0.5585728384453755</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2311331225365864</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7315984643734749</v>
+        <v>-0.7007398195003749</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.04026550715749</v>
+        <v>-2.038195672012979</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5546362166230024</v>
+        <v>-0.5533345028096868</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2244482884158557</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5752716073032546</v>
+        <v>-0.5469455591963274</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.005613476202055</v>
+        <v>-2.005325430702857</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5396342403778857</v>
+        <v>-0.5354284612857702</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2146982533396345</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4246206631844444</v>
+        <v>-0.3965858086149578</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.97739918345274</v>
+        <v>-1.973608158399087</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4807596291647547</v>
+        <v>-0.4766545872964025</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2019989450736611</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2544739182292039</v>
+        <v>-0.2176576109819808</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.983286801975965</v>
+        <v>-1.980211168612944</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.44199311222624</v>
+        <v>-0.4357820327735876</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1865282918520566</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.04564250532975647</v>
+        <v>-0.006013425912769052</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.936329089530202</v>
+        <v>-1.930410777634111</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4087246440784287</v>
+        <v>-0.4077707884909205</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1687761619220083</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1365423378651916</v>
+        <v>0.1739945488374202</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.85636104807252</v>
+        <v>-1.847190025662262</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.368146431131297</v>
+        <v>-0.3603345742322817</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1486555842765873</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3601333280650756</v>
+        <v>0.4015882696627718</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.819831212305374</v>
+        <v>-1.810557878652231</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3145416359362808</v>
+        <v>-0.3090703454706396</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1262833195035557</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5961999938203889</v>
+        <v>0.6427201289504307</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.786111000669749</v>
+        <v>-1.768969145429224</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2675461470316061</v>
+        <v>-0.2636945222417834</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1015995386152223</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8079449161133639</v>
+        <v>0.8599032873074997</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.733146044247542</v>
+        <v>-1.719025518710353</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.22865685660163</v>
+        <v>-0.2216823778751467</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.07425150548621605</v>
       </c>
       <c r="E84" t="n">
-        <v>1.019334110084925</v>
+        <v>1.074593199376428</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.680608434016768</v>
+        <v>-1.666364347978557</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.175607690156433</v>
+        <v>-0.1731616644419317</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.04377053387700353</v>
       </c>
       <c r="E85" t="n">
-        <v>1.269349733293205</v>
+        <v>1.322949806430857</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.61399358377464</v>
+        <v>-1.596224481914277</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1343809813313253</v>
+        <v>-0.1279904636988446</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.009397529739136322</v>
       </c>
       <c r="E86" t="n">
-        <v>1.470957972445003</v>
+        <v>1.518926205166642</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.538822365589123</v>
+        <v>-1.519960107449016</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.09164321414976907</v>
+        <v>-0.08730836548970697</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.02820367660953563</v>
       </c>
       <c r="E87" t="n">
-        <v>1.648708803775248</v>
+        <v>1.696108815594096</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.440180948285891</v>
+        <v>-1.426128105570918</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.04270223761116678</v>
+        <v>-0.03685318255641343</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06731144220518681</v>
       </c>
       <c r="E88" t="n">
-        <v>1.789983315988469</v>
+        <v>1.835950970406935</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.32674060320419</v>
+        <v>-1.313946188776697</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.00243882848829519</v>
+        <v>0.001710285915453423</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1039915907892614</v>
       </c>
       <c r="E89" t="n">
-        <v>1.890441938367243</v>
+        <v>1.932199091636229</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.168550107494349</v>
+        <v>-1.157437532497966</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03051011377789211</v>
+        <v>0.03570909893554828</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1342119578169013</v>
       </c>
       <c r="E90" t="n">
-        <v>1.97247351889295</v>
+        <v>2.010284606224835</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.026267436033934</v>
+        <v>-1.014767652333711</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04981860633888764</v>
+        <v>0.05480037685780432</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1542815357870543</v>
       </c>
       <c r="E91" t="n">
-        <v>2.021383015049126</v>
+        <v>2.055309423189641</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8427989802455652</v>
+        <v>-0.8306979212410056</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03615139830863377</v>
+        <v>0.03922703167165532</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1616822102116007</v>
       </c>
       <c r="E92" t="n">
-        <v>2.072379660560147</v>
+        <v>2.111012385873351</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6320543471041769</v>
+        <v>-0.624862653738954</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05170428124620587</v>
+        <v>0.05664040521060482</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1558218482314541</v>
       </c>
       <c r="E93" t="n">
-        <v>2.070764716941693</v>
+        <v>2.105929878130671</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.488650187019835</v>
+        <v>-0.4793744923380101</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04021394166071085</v>
+        <v>0.04620623245550257</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1379018773293813</v>
       </c>
       <c r="E94" t="n">
-        <v>2.055548674096079</v>
+        <v>2.089892197303739</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2973187187110086</v>
+        <v>-0.2845487015798961</v>
       </c>
       <c r="G94" t="n">
-        <v>0.008428199525164758</v>
+        <v>0.01697984541119139</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1122595181771091</v>
       </c>
       <c r="E95" t="n">
-        <v>1.964390930705071</v>
+        <v>1.995359756916662</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1212631059744054</v>
+        <v>-0.1098876697847653</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.005771026968088747</v>
+        <v>-0.0005043589882166448</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.08469841192197451</v>
       </c>
       <c r="E96" t="n">
-        <v>1.882439625154551</v>
+        <v>1.910975017804611</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.01286040909042704</v>
+        <v>-0.004976147311831899</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0424960411062764</v>
+        <v>-0.04293361842199798</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.06050476203037924</v>
       </c>
       <c r="E97" t="n">
-        <v>1.699681838999449</v>
+        <v>1.723514062515063</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06488039531061393</v>
+        <v>0.069618192865729</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.07394336913074284</v>
+        <v>-0.07143280863226824</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.04081724014687984</v>
       </c>
       <c r="E98" t="n">
-        <v>1.536056255263757</v>
+        <v>1.5560998147544</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1042230032475246</v>
+        <v>0.1107614786774077</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.0894269952269777</v>
+        <v>-0.08777742318785459</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.02517316343346363</v>
       </c>
       <c r="E99" t="n">
-        <v>1.390182459178095</v>
+        <v>1.401775110006474</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1190785957143605</v>
+        <v>0.1215561018112878</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.115225168625096</v>
+        <v>-0.1145373222690876</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.00707978320564212</v>
       </c>
       <c r="E100" t="n">
-        <v>1.228718003695949</v>
+        <v>1.232275286910089</v>
       </c>
       <c r="F100" t="n">
-        <v>0.136575392266739</v>
+        <v>0.1390702125740005</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1126264630558285</v>
+        <v>-0.1119921333499444</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.01310696977990895</v>
       </c>
       <c r="E101" t="n">
-        <v>1.093745864044415</v>
+        <v>1.09486499163966</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1120521743568742</v>
+        <v>0.1120049537832352</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1437983377340674</v>
+        <v>-0.1447994138952146</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04257547976193385</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9441731230236958</v>
+        <v>0.9426022519406377</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1093952300801187</v>
+        <v>0.106727267669514</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1147875913093744</v>
+        <v>-0.1127948831018077</v>
       </c>
     </row>
   </sheetData>
